--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Version</t>
   </si>
@@ -76,6 +76,26 @@
 -Implement mutations
 -Implement save and load configurations.
 -Document every function.
+</t>
+  </si>
+  <si>
+    <t>0.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Changed the sorting order for the Group selection to be proportional from the Direct Fitness/Indirect Fitness
+-Implemented  group selection correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-Agrupation and desagrupation to be done in functions.
+-Change reproduction and distribution to two parts.
+-UI: Delete rows according to working functionality.
+-UI: condicionate IF to be associated.
+-Implement mutations.
+-Implement save and load configurations.
+-Document every function.
+-The program does not work with 2 or less niches.
+-When an actor dies, the recipient should deassociate.
 </t>
   </si>
 </sst>
@@ -145,36 +165,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -460,125 +477,139 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+    <row r="4" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Version</t>
   </si>
@@ -84,6 +85,18 @@
   <si>
     <t xml:space="preserve"> -Changed the sorting order for the Group selection to be proportional from the Direct Fitness/Indirect Fitness
 -Implemented  group selection correctly.</t>
+  </si>
+  <si>
+    <t>DPSI</t>
+  </si>
+  <si>
+    <t>15/</t>
+  </si>
+  <si>
+    <t>-UI: Removed Biotic potential
+-UI: Added total niches
+-Random selection in the individual selection is done proportionally to the total of individuals instead of the total of different species.
+-Reviewed association.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -96,7 +109,27 @@
 -Document every function.
 -The program does not work with 2 or less niches.
 -When an actor dies, the recipient should deassociate.
-</t>
+-Random selection in the individual selection shall be done proportionally to the total of individuals instead of the total of different species.
+-Review Association.</t>
+  </si>
+  <si>
+    <t>0.1.2</t>
+  </si>
+  <si>
+    <t>-Agrupation and desagrupation to be done in functions.
+-Change reproduction and distribution to two parts.
+-UI: Delete rows according to working functionality.
+-UI: condicionate IF to be associated.
+-Implement mutations.
+-Implement save and load configurations.
+-Document every function.
+-The program does not work with 2 or less niches.
+-When an actor dies, the recipient should deassociate.
+-Order for SG shall have into account if the specie is associated or not.
+-UI: automatically fill aggrupation data.</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (9)</t>
   </si>
 </sst>
 </file>
@@ -477,8 +510,8 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -560,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -575,14 +608,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+    <row r="5" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -615,4 +662,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF334EE8-2E17-4EF2-84C0-362D42D55321}">
+  <dimension ref="A4:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Version</t>
   </si>
@@ -116,6 +116,9 @@
     <t>0.1.2</t>
   </si>
   <si>
+    <t>AUTOMATA CELULAR - copia (9)</t>
+  </si>
+  <si>
     <t>-Agrupation and desagrupation to be done in functions.
 -Change reproduction and distribution to two parts.
 -UI: Delete rows according to working functionality.
@@ -126,10 +129,17 @@
 -The program does not work with 2 or less niches.
 -When an actor dies, the recipient should deassociate.
 -Order for SG shall have into account if the specie is associated or not.
--UI: automatically fill aggrupation data.</t>
-  </si>
-  <si>
-    <t>AUTOMATA CELULAR - copia (9)</t>
+-UI: automatically fill aggrupation data.
+-SI is not doing the random selection properly.</t>
+  </si>
+  <si>
+    <t>0.1.3</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (10)</t>
+  </si>
+  <si>
+    <t>-SI random selection corrected.</t>
   </si>
 </sst>
 </file>
@@ -510,14 +520,14 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="40.44140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="9" bestFit="1" customWidth="1"/>
@@ -608,15 +618,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -631,14 +641,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+    <row r="6" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>

--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7AA433-E378-4071-BC6E-09BEBA13E820}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Version</t>
   </si>
@@ -140,6 +141,45 @@
   </si>
   <si>
     <t>-SI random selection corrected.</t>
+  </si>
+  <si>
+    <t>-Agrupation and desagrupation to be done in functions.
+-Change reproduction and distribution to two parts.
+-UI: Delete rows according to working functionality.
+-UI: condicionate IF to be associated.
+-Implement mutations.
+-Implement save and load configurations.
+-Document every function.
+-The program does not work with 2 or less niches.
+-When an actor dies, the recipient should deassociate.
+-Order for SG shall have into account if the specie is associated or not.
+-UI: automatically fill aggrupation data.
+-SI is not doing the random selection properly.
+-Agrupation and association to itself do not work properly.</t>
+  </si>
+  <si>
+    <t>0.1.4</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (11)</t>
+  </si>
+  <si>
+    <t>-Agrupation and desagrupation to be done in functions.
+-Change reproduction and distribution to two parts.
+-UI: Delete rows according to working functionality.
+-UI: condicionate IF to be associated.
+-Implement mutations.
+-Implement save and load configurations.
+-Document every function.
+-The program does not work with 2 or less niches.
+*When an actor dies, the recipient should deassociate.
+-UI: automatically fill aggrupation data.
+*Agrupation and association to itself do not work properly.</t>
+  </si>
+  <si>
+    <t>-UI: Progress bar.
+-SI random selection corrected.
+-Order for SG have into account if the specie is associated or not.</t>
   </si>
 </sst>
 </file>
@@ -520,8 +560,8 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -649,7 +689,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>27</v>
@@ -664,14 +704,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+    <row r="7" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>

--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7AA433-E378-4071-BC6E-09BEBA13E820}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC23B89-111D-41C3-9E33-D6B778EC67CA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Version</t>
   </si>
@@ -180,6 +180,31 @@
     <t>-UI: Progress bar.
 -SI random selection corrected.
 -Order for SG have into account if the specie is associated or not.</t>
+  </si>
+  <si>
+    <t>0.1.5</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (12)</t>
+  </si>
+  <si>
+    <t>-Agrupation and desagrupation to be done in functions.
+-Change reproduction and distribution to two parts.
+-UI: Delete rows according to working functionality.
+-UI: condicionate IF to be associated.
+-Implement mutations.
+-With 4 or less niches the distribution is not equaly done.
+-Document every function.
+*When an actor dies, the recipient should deassociate.
+-UI: automatically fill aggrupation data.
+*Agrupation and association to itself do not work properly.</t>
+  </si>
+  <si>
+    <t>-SI performace improvement.
+-Save and load implemented to file temp.csv.
+-Consumption can be a float due to the percentage of DF to consume.
+-The program can work now with 1 niches or more.
+-Relative individual selection pressure added.</t>
   </si>
 </sst>
 </file>
@@ -560,8 +585,8 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,14 +752,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+    <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC23B89-111D-41C3-9E33-D6B778EC67CA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4476CBA-F6C2-4FD4-9EF5-0E713FEE65AF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Version</t>
   </si>
@@ -68,17 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve"> PyInstaller 3.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -Change the sorting order for the Group selection to be proportional from the Direct Fitness/Indirect Fitness
--Agrupation and desagrupation to be done in functions.
--Implement  group selection correctly.
--Change reproduction and distribution to two parts.
--UI: Delete rows according to working functionality.
--Implement mutations
--Implement save and load configurations.
--Document every function.
-</t>
   </si>
   <si>
     <t>0.1.1</t>
@@ -98,20 +87,6 @@
 -UI: Added total niches
 -Random selection in the individual selection is done proportionally to the total of individuals instead of the total of different species.
 -Reviewed association.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--Agrupation and desagrupation to be done in functions.
--Change reproduction and distribution to two parts.
--UI: Delete rows according to working functionality.
--UI: condicionate IF to be associated.
--Implement mutations.
--Implement save and load configurations.
--Document every function.
--The program does not work with 2 or less niches.
--When an actor dies, the recipient should deassociate.
--Random selection in the individual selection shall be done proportionally to the total of individuals instead of the total of different species.
--Review Association.</t>
   </si>
   <si>
     <t>0.1.2</t>
@@ -205,6 +180,56 @@
 -Consumption can be a float due to the percentage of DF to consume.
 -The program can work now with 1 niches or more.
 -Relative individual selection pressure added.</t>
+  </si>
+  <si>
+    <t>0.1.6</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (13)</t>
+  </si>
+  <si>
+    <t>-Association made properly random.
+-Fixed SG not working properly on association.
+-UI: Added name to save/load file.
+-ACF: Added shuffle order function.</t>
+  </si>
+  <si>
+    <t>-Agrupation and desagrupation to be done in functions.
+-Change reproduction and distribution to two parts.
+-UI: Delete rows according to working functionality.
+-UI: condicionate IF to be associated.
+-Implement mutations.
+-With 4 or less niches the distribution is not equaly done.
+-Document every function.
+*When an actor dies, the recipient should deassociate.
+-UI: automatically fill aggrupation data.
+*Aggrupation and association to itself do not work properly.
+-New SG system.
+-Deaggrupation to be done in between reproduction and distribution.
+-Egoism for aggrupation shall be multiplied by 1/2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Change the sorting order for the Group selection to be proportional from the Direct Fitness/Indirect Fitness
+-Agrupation and desagrupation to be done in functions.
+-Implement  group selection correctly.
+-Change reproduction and distribution to two parts.
+-UI: Delete rows according to working functionality.
+-Implement mutations
+-Implement save and load configurations.
+-Document every function.</t>
+  </si>
+  <si>
+    <t>-Agrupation and desagrupation to be done in functions.
+-Change reproduction and distribution to two parts.
+-UI: Delete rows according to working functionality.
+-UI: condicionate IF to be associated.
+-Implement mutations.
+-Implement save and load configurations.
+-Document every function.
+-The program does not work with 2 or less niches.
+-When an actor dies, the recipient should deassociate.
+-Random selection in the individual selection shall be done proportionally to the total of individuals instead of the total of different species.
+-Review Association.</t>
   </si>
 </sst>
 </file>
@@ -582,18 +607,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="73.44140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="40.44140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" style="9" bestFit="1" customWidth="1"/>
@@ -637,7 +662,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -645,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -660,18 +685,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>12</v>
@@ -683,18 +708,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
@@ -706,18 +731,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
@@ -731,16 +756,16 @@
     </row>
     <row r="7" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>12</v>
@@ -754,16 +779,16 @@
     </row>
     <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
@@ -772,6 +797,29 @@
         <v>13</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -793,10 +841,10 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4476CBA-F6C2-4FD4-9EF5-0E713FEE65AF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11590C93-D647-461C-92A7-D1C696AFB17C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Version</t>
   </si>
@@ -230,6 +230,29 @@
 -When an actor dies, the recipient should deassociate.
 -Random selection in the individual selection shall be done proportionally to the total of individuals instead of the total of different species.
 -Review Association.</t>
+  </si>
+  <si>
+    <t>0.1.7</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (14)</t>
+  </si>
+  <si>
+    <t>-Association to itself corrected.
+-Aggrupation to itself corrected.
+-SG corrected to random order when they have the same value.
+-Added Agrupation and Reciprocal to SG.
+-Reciprocal working.
+-UI: automatically fill aggrupation data.</t>
+  </si>
+  <si>
+    <t>-Agrupation and disaggregate to be done in functions.
+-Change reproduction and distribution to two parts.
+-UI: Delete rows according to working functionality.
+*Implement mutations.
+-With 4 or less niches the distribution is not equaly done.
+-Document every function.
+-Disaggregate to be done in between reproduction and distribution.</t>
   </si>
 </sst>
 </file>
@@ -607,11 +630,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,6 +845,38 @@
       <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11590C93-D647-461C-92A7-D1C696AFB17C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092982F9-DE79-485B-915B-64C06CEA9206}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>Version</t>
   </si>
@@ -250,9 +250,31 @@
 -Change reproduction and distribution to two parts.
 -UI: Delete rows according to working functionality.
 *Implement mutations.
+*Graphic representation of F'.
 -With 4 or less niches the distribution is not equaly done.
 -Document every function.
 -Disaggregate to be done in between reproduction and distribution.</t>
+  </si>
+  <si>
+    <t>0.1.8</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (15)</t>
+  </si>
+  <si>
+    <t>-Shuffle for SG corrected.
+-Output files added(_resultados.csv, _datos.csv, _nichos.csv, out.txt).</t>
+  </si>
+  <si>
+    <t>-Agrupation and disaggregate to be done in functions.
+-Change reproduction and distribution to two parts.
+-UI: Delete rows according to working functionality.
+*Implement mutations.
+*Graphic representation of F'.
+-With 4 or less niches the distribution is not equaly done.
+-Document every function.
+-Disaggregate to be done in between reproduction and distribution.
+-Rework E calc.</t>
   </si>
 </sst>
 </file>
@@ -633,8 +655,8 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,7 +868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
@@ -869,14 +891,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+    <row r="11" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092982F9-DE79-485B-915B-64C06CEA9206}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBD2AC9-DC62-49CD-9CC6-87C33F11DEC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>Version</t>
   </si>
@@ -275,6 +275,27 @@
 -Document every function.
 -Disaggregate to be done in between reproduction and distribution.
 -Rework E calc.</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (16)</t>
+  </si>
+  <si>
+    <t>-Changed reproduction and distribution to two parts.
+-Disaggregate done in between reproduction and distribution.
+-Aggregation conditions.
+-Fixed minor error on the SG.
+-With 4 or less niches the distribution is now equaly done.</t>
+  </si>
+  <si>
+    <t>-Make the code more readable using functions.
+-UI: Delete rows according to working functionality.
+*Implement mutations.
+*Graphic representation of F'.
+-Rework E calc.
+-Document every function.</t>
   </si>
 </sst>
 </file>
@@ -652,11 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,6 +932,29 @@
         <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBD2AC9-DC62-49CD-9CC6-87C33F11DEC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFE4477-467A-4533-B6C0-E65A21CB44A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>Version</t>
   </si>
@@ -296,6 +296,46 @@
 *Graphic representation of F'.
 -Rework E calc.
 -Document every function.</t>
+  </si>
+  <si>
+    <t>0.3.0</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (18)</t>
+  </si>
+  <si>
+    <t>-Implemented mutations.</t>
+  </si>
+  <si>
+    <t>-Make the code more readable using functions.
+-UI: Delete rows according to working functionality.
+*Graphic representation of F'.
+-Rework E calc.
+-Document every function.
+_OPTIONAL: Make it possible to reduce Niches.
+-When there is no data, the program crashes.
+-UI: Implement reset for data adquisition.
+-Check save data</t>
+  </si>
+  <si>
+    <t>0.3.1</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (19)</t>
+  </si>
+  <si>
+    <t>-Fixed flexibility.
+-UI: Implement reset for data adquisition.</t>
+  </si>
+  <si>
+    <t>-Make the code more readable using functions.
+-UI: Delete rows according to working functionality.
+*Graphic representation of F'.
+-Rework E calc.
+-Document every function.
+_OPTIONAL: Make it possible to reduce Niches on mutations.
+-When there is no data, the program crashes.
+-Check save data formatting.</t>
   </si>
 </sst>
 </file>
@@ -673,11 +713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,6 +997,88 @@
       <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="13" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFE4477-467A-4533-B6C0-E65A21CB44A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2769CF7-8882-47C6-845D-498BBA9B76CA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>Version</t>
   </si>
@@ -336,6 +336,39 @@
 _OPTIONAL: Make it possible to reduce Niches on mutations.
 -When there is no data, the program crashes.
 -Check save data formatting.</t>
+  </si>
+  <si>
+    <t>-Added graphic representation of population.
+-Fixed flexibility issue.</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (21)
+No EXE</t>
+  </si>
+  <si>
+    <t>0.4.1</t>
+  </si>
+  <si>
+    <t>-Fixed group selection.
+-Fixed reciprocal association.
+-Graphic representation disabled.</t>
+  </si>
+  <si>
+    <t>-Make the code more readable using functions.
+-UI: Delete rows according to working functionality.
+*Graphic representation of F'.
+-Rework E calc.
+-Document every function.
+_OPTIONAL: Make it possible to reduce Niches on mutations.
+-When there is no data, the program crashes.
+-Check save data formatting.
+-Rework graphic representation to make an EXE.</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (25)</t>
   </si>
 </sst>
 </file>
@@ -716,8 +749,8 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,23 +1077,51 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+    <row r="15" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>

--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2769CF7-8882-47C6-845D-498BBA9B76CA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7249DF1D-D59A-467C-BFCB-5A10A770A836}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
   <si>
     <t>Version</t>
   </si>
@@ -352,11 +352,6 @@
     <t>0.4.1</t>
   </si>
   <si>
-    <t>-Fixed group selection.
--Fixed reciprocal association.
--Graphic representation disabled.</t>
-  </si>
-  <si>
     <t>-Make the code more readable using functions.
 -UI: Delete rows according to working functionality.
 *Graphic representation of F'.
@@ -369,6 +364,79 @@
   </si>
   <si>
     <t>AUTOMATA CELULAR - copia (25)</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (27)</t>
+  </si>
+  <si>
+    <t>0.5.0</t>
+  </si>
+  <si>
+    <t>-Make the code more readable using functions.
+-UI: Delete rows according to working functionality.
+-Document every function.
+_OPTIONAL: Make it possible to reduce Niches on mutations.
+-When there is no data, the program crashes.
+-Check save data formatting.</t>
+  </si>
+  <si>
+    <t>0.5.2</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (28)</t>
+  </si>
+  <si>
+    <t>-Reworked E calc.
+-Reworked P calc.</t>
+  </si>
+  <si>
+    <t>0.6.0</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (29)</t>
+  </si>
+  <si>
+    <t>-Reworked GS to be based on Greed
+-Results saved at the end for Gapminder</t>
+  </si>
+  <si>
+    <t>-Fixed group selection.
+-Fixed reciprocal association.
+-Graphic representation disabled.
+-No more EXE from pyinstaller.</t>
+  </si>
+  <si>
+    <t>-Graphic representation enabled.
+-Graphic representation of F'.
+-Reworked E calc.
+-Reworked file system</t>
+  </si>
+  <si>
+    <t>0.6.1</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (30)</t>
+  </si>
+  <si>
+    <t>-UI: Delete rows according to working functionality.
+-Document every function.
+_OPTIONAL: Make it possible to reduce Niches on mutations.
+-When there is no data, the program crashes.</t>
+  </si>
+  <si>
+    <t>-Reworked functions and unified them.
+-Finished no GUI option</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (31)</t>
+  </si>
+  <si>
+    <t>0.6.2</t>
+  </si>
+  <si>
+    <t>-Reworked grouping
+-Fixed missundertanding for Individual Selection Pressure.
+-GUI: Group Selection deaths percentage made float from int</t>
   </si>
 </sst>
 </file>
@@ -746,11 +814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,41 +1173,207 @@
         <v>64</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7249DF1D-D59A-467C-BFCB-5A10A770A836}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85058EA6-6304-45FC-A05C-DD91C86A5444}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Version</t>
   </si>
@@ -437,6 +437,17 @@
     <t>-Reworked grouping
 -Fixed missundertanding for Individual Selection Pressure.
 -GUI: Group Selection deaths percentage made float from int</t>
+  </si>
+  <si>
+    <t>0.6.3</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (32)</t>
+  </si>
+  <si>
+    <t>-Reworked Greed calc
+-GUI: Flexibility has now the 0 value by default
+-Fixed Flexibility not working properly.</t>
   </si>
 </sst>
 </file>
@@ -816,9 +827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,13 +1305,25 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">

--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85058EA6-6304-45FC-A05C-DD91C86A5444}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8DC245-4D64-430D-8B95-4E7F8CD8B0C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
   <si>
     <t>Version</t>
   </si>
@@ -448,6 +448,40 @@
     <t>-Reworked Greed calc
 -GUI: Flexibility has now the 0 value by default
 -Fixed Flexibility not working properly.</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (33)</t>
+  </si>
+  <si>
+    <t>0.6.4</t>
+  </si>
+  <si>
+    <t>-UI: Delete rows according to working functionality.
+-Document every function.
+_OPTIONAL: Make it possible to reduce Niches on mutations.
+-When there is no data, the program crashes.
+-Work on Group selection.</t>
+  </si>
+  <si>
+    <t>-Fixed Greed calc
+-Fixed historic data writing</t>
+  </si>
+  <si>
+    <t>0.7.0</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (34)</t>
+  </si>
+  <si>
+    <t>-Rework GS.
+-GUI: added Lambda</t>
+  </si>
+  <si>
+    <t>-UI: Delete rows according to working functionality.
+-Document every function.
+_OPTIONAL: Make it possible to reduce Niches on mutations.
+-When there is no data, the program crashes.
+-Rework flexibility</t>
   </si>
 </sst>
 </file>
@@ -828,8 +862,8 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1326,22 +1360,46 @@
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+    <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+    <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">

--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8DC245-4D64-430D-8B95-4E7F8CD8B0C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DBB9DD-FC5F-4C2A-942D-22A6F5A03E9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="99">
   <si>
     <t>Version</t>
   </si>
@@ -482,6 +482,15 @@
 _OPTIONAL: Make it possible to reduce Niches on mutations.
 -When there is no data, the program crashes.
 -Rework flexibility</t>
+  </si>
+  <si>
+    <t>0.7.1</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (35)</t>
+  </si>
+  <si>
+    <t>-Reworked Greed.</t>
   </si>
 </sst>
 </file>
@@ -863,7 +872,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,13 +1411,25 @@
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+    <row r="25" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">

--- a/Version history.xlsx
+++ b/Version history.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DBB9DD-FC5F-4C2A-942D-22A6F5A03E9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78641B85-6ED5-461B-9082-E68CD1A2CDC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="102">
   <si>
     <t>Version</t>
   </si>
@@ -491,6 +491,17 @@
   </si>
   <si>
     <t>-Reworked Greed.</t>
+  </si>
+  <si>
+    <t>0.7.2</t>
+  </si>
+  <si>
+    <t>AUTOMATA CELULAR - copia (36)</t>
+  </si>
+  <si>
+    <t>-Reworked Aggrupation.
+-Reworked Flexibility.
+-Lambda can now be negative.</t>
   </si>
 </sst>
 </file>
@@ -872,7 +883,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1432,13 +1443,25 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
